--- a/data/processed/us_population.xlsx
+++ b/data/processed/us_population.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ds_projects\maven-challenge\Maven-Power-Outage-Challenge\data\processed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{305FB561-8907-479E-A442-9E2704B88971}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A59E884-2CFD-4556-965B-13BDF7B783EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1901C780-8E6D-4D0E-A830-C984A0415A36}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1901C780-8E6D-4D0E-A830-C984A0415A36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="62">
   <si>
     <t>Rank</t>
   </si>
@@ -213,6 +213,15 @@
   </si>
   <si>
     <t>https://www.statsamerica.org/sip/rank_list.aspx?rank_label=pop1&amp;ct=S18</t>
+  </si>
+  <si>
+    <t>Range</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>% Higher Than STD</t>
   </si>
 </sst>
 </file>
@@ -304,7 +313,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -318,14 +327,23 @@
     <xf numFmtId="3" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -642,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21675415-DC53-4969-B384-60770AB5AC57}">
-  <dimension ref="A1:F53"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,23 +671,25 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="16.85546875" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
-    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="7" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -688,8 +708,17 @@
       <c r="F2" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -702,16 +731,28 @@
       <c r="D3" s="4">
         <v>39029342</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="9">
         <f>_xlfn.VAR.P(D3:D53)</f>
         <v>54027915600642.273</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="9">
         <f>_xlfn.STDEV.P(D3:D53)</f>
         <v>7350368.398974454</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G3" s="10">
+        <f>MAX(D3:D53)-MIN(D3:D53)</f>
+        <v>38447961</v>
+      </c>
+      <c r="H3" s="10">
+        <f>AVERAGE(D3:D53)</f>
+        <v>6535050.1372549022</v>
+      </c>
+      <c r="I3" s="9">
+        <f>13/50</f>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -725,7 +766,7 @@
         <v>30029572</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -739,7 +780,7 @@
         <v>22244823</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -753,7 +794,7 @@
         <v>19677151</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -767,7 +808,7 @@
         <v>12972008</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -781,7 +822,7 @@
         <v>12582032</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -795,7 +836,7 @@
         <v>11756058</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -809,7 +850,7 @@
         <v>10912876</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -823,7 +864,7 @@
         <v>10698973</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -837,7 +878,7 @@
         <v>10034113</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -851,7 +892,7 @@
         <v>9261699</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -865,7 +906,7 @@
         <v>8683619</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -879,7 +920,7 @@
         <v>7785786</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -893,7 +934,7 @@
         <v>7359197</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -949,7 +990,7 @@
         <v>6177957</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -963,7 +1004,7 @@
         <v>6164660</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -977,7 +1018,7 @@
         <v>5892539</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -991,7 +1032,7 @@
         <v>5839926</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1033,7 +1074,7 @@
         <v>5074296</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1047,7 +1088,7 @@
         <v>4590241</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1075,7 +1116,7 @@
         <v>4240137</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1089,7 +1130,7 @@
         <v>4019800</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1145,7 +1186,7 @@
         <v>3177772</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1159,7 +1200,7 @@
         <v>3045637</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -1187,7 +1228,7 @@
         <v>2937150</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -1201,7 +1242,7 @@
         <v>2113344</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -1229,7 +1270,7 @@
         <v>1939033</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -1257,7 +1298,7 @@
         <v>1440196</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="43.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -1299,7 +1340,7 @@
         <v>1122867</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -1313,7 +1354,7 @@
         <v>1093734</v>
       </c>
     </row>
-    <row r="47" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -1327,7 +1368,7 @@
         <v>1018396</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -1341,7 +1382,7 @@
         <v>909824</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>47</v>
       </c>
@@ -1369,7 +1410,7 @@
         <v>733583</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="57.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -1397,7 +1438,7 @@
         <v>647064</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>51</v>
       </c>
